--- a/data/SupplementaryRawDataTables.xlsx
+++ b/data/SupplementaryRawDataTables.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlynmccoleman/Library/Mobile Documents/com~apple~CloudDocs/Documents/cogslab/DigitEyes/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Raw Fixation Duration" sheetId="1" r:id="rId4"/>
-    <sheet name="Raw PAC Duration" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Raw Fixation Duration" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw PAC Duration" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Non-PAC Fixations (Fixations with no Actions); Linear mixed effects from raw data</t>
   </si>
@@ -66,6 +81,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -83,6 +99,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -131,6 +148,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -148,6 +166,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -169,16 +188,18 @@
   <si>
     <t>Table 1</t>
   </si>
+  <si>
+    <t>Perception Action Cycles; Linear mixed effects from raw data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -188,18 +209,21 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -343,121 +367,182 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffefefe"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -656,7 +741,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -675,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,9 +1011,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -945,7 +1036,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -964,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -990,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,9 +1302,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1227,7 +1324,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1246,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1276,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1406,7 +1503,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1432,7 +1529,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1458,7 +1555,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1484,7 +1581,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,42 +1594,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3906" style="1" customWidth="1"/>
-    <col min="6" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1542,491 +1649,491 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
-        <v>0.025</v>
-      </c>
-      <c r="C2" t="s" s="6">
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
-        <v>0.975</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="D2" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>66.47025600000001</v>
-      </c>
-      <c r="C3" s="11">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="D3" s="12">
-        <v>70.1023062</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="B3" s="9">
+        <v>66.470256000000006</v>
+      </c>
+      <c r="C3" s="10">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="D3" s="11">
+        <v>70.102306200000001</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>-5.206834</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9">
+        <v>-5.2068339999999997</v>
+      </c>
+      <c r="C4" s="10">
         <v>-3</v>
       </c>
-      <c r="D4" s="12">
-        <v>-0.7910273</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="D4" s="11">
+        <v>-0.79102729999999999</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>-7.69973</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9">
+        <v>-7.6997299999999997</v>
+      </c>
+      <c r="C5" s="10">
         <v>-5.63</v>
       </c>
-      <c r="D5" s="12">
-        <v>-3.5600813</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="D5" s="11">
+        <v>-3.5600812999999998</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>-8.506819</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
+        <v>-8.5068190000000001</v>
+      </c>
+      <c r="C6" s="10">
         <v>-6.51</v>
       </c>
-      <c r="D6" s="12">
-        <v>-4.5210677</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="D6" s="11">
+        <v>-4.5210676999999997</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>-12.298008</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>-12.298007999999999</v>
+      </c>
+      <c r="C7" s="10">
         <v>-10.3</v>
       </c>
-      <c r="D7" s="12">
-        <v>-8.3079698</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="D7" s="11">
+        <v>-8.3079698000000004</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>-15.438598</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>-15.438598000000001</v>
+      </c>
+      <c r="C8" s="10">
         <v>-13.39</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>-11.3453512</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>-23.195679</v>
-      </c>
-      <c r="C9" s="11">
-        <v>-18.74</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" s="9">
+        <v>-23.195678999999998</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-18.739999999999998</v>
+      </c>
+      <c r="D9" s="11">
         <v>-14.2877314</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" t="s" s="17">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" ht="104.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="18">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s" s="19">
+      <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" t="s" s="22">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" t="s" s="18">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s" s="19">
+      <c r="C15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s" s="19">
+      <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s" s="19">
+      <c r="E15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10">
-        <v>66.26082</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="9">
+        <v>66.260819999999995</v>
+      </c>
+      <c r="C16" s="11">
         <v>44</v>
       </c>
-      <c r="D16" s="12">
-        <v>75.02648000000001</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="11">
+        <v>75.026480000000006</v>
+      </c>
+      <c r="E16" s="11">
         <v>28211</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="10">
-        <v>62.92558</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="9">
+        <v>62.925579999999997</v>
+      </c>
+      <c r="C17" s="11">
         <v>44</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>66.83511</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>59351</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
-        <v>61.22632</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="9">
+        <v>61.226320000000001</v>
+      </c>
+      <c r="C18" s="11">
         <v>44</v>
       </c>
-      <c r="D18" s="12">
-        <v>63.71684</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="11">
+        <v>63.716839999999998</v>
+      </c>
+      <c r="E18" s="11">
         <v>90094</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10">
-        <v>60.10931</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="9">
+        <v>60.109310000000001</v>
+      </c>
+      <c r="C19" s="11">
         <v>44</v>
       </c>
-      <c r="D19" s="12">
-        <v>83.60628</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="11">
+        <v>83.606279999999998</v>
+      </c>
+      <c r="E19" s="11">
         <v>132316</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10">
-        <v>56.6388</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="9">
+        <v>56.638800000000003</v>
+      </c>
+      <c r="C20" s="11">
         <v>44</v>
       </c>
-      <c r="D20" s="12">
-        <v>51.09165</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="11">
+        <v>51.091650000000001</v>
+      </c>
+      <c r="E20" s="11">
         <v>125630</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10">
-        <v>53.95175</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="9">
+        <v>53.951749999999997</v>
+      </c>
+      <c r="C21" s="11">
         <v>44</v>
       </c>
-      <c r="D21" s="12">
-        <v>43.93911</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="11">
+        <v>43.939109999999999</v>
+      </c>
+      <c r="E21" s="11">
         <v>96367</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="10">
-        <v>48.96169</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="9">
+        <v>48.961689999999997</v>
+      </c>
+      <c r="C22" s="11">
         <v>36</v>
       </c>
-      <c r="D22" s="12">
-        <v>36.95835</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="11">
+        <v>36.958350000000003</v>
+      </c>
+      <c r="E22" s="11">
         <v>5873</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2034,8 +2141,8 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B14:D14"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2043,46 +2150,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="13" width="16.3516" style="23" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="13" width="16.33203125" style="20" customWidth="1"/>
+    <col min="14" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="24">
+    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2093,517 +2203,517 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
-        <v>0.025</v>
-      </c>
-      <c r="C3" t="s" s="6">
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7">
-        <v>0.975</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="D3" s="6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>369.18365</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>380.95</v>
       </c>
-      <c r="D4" s="12">
-        <v>392.70686</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="D4" s="11">
+        <v>392.70686000000001</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-54.24277</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-39.97</v>
       </c>
-      <c r="D5" s="12">
-        <v>-25.69588</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="D5" s="11">
+        <v>-25.695879999999999</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
-        <v>-92.58056000000001</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
+        <v>-92.580560000000006</v>
+      </c>
+      <c r="C6" s="10">
         <v>-79.2</v>
       </c>
-      <c r="D6" s="12">
-        <v>-65.81399</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="D6" s="11">
+        <v>-65.813990000000004</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
-        <v>-124.25714</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>-124.25714000000001</v>
+      </c>
+      <c r="C7" s="10">
         <v>-111.38</v>
       </c>
-      <c r="D7" s="12">
-        <v>-98.49469999999999</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="D7" s="11">
+        <v>-98.494699999999995</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
-        <v>-153.93756</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>-153.93755999999999</v>
+      </c>
+      <c r="C8" s="10">
         <v>-141.07</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>-128.18268</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
-        <v>-179.71326</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>-179.71325999999999</v>
+      </c>
+      <c r="C9" s="10">
         <v>-166.52</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>-153.32028</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>-234.95685</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>-206.54</v>
       </c>
-      <c r="D10" s="12">
-        <v>-178.10866</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" t="s" s="17">
+      <c r="D10" s="11">
+        <v>-178.10865999999999</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" ht="104.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s" s="19">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" t="s" s="22">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" t="s" s="18">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s" s="19">
+      <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s" s="19">
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s" s="19">
+      <c r="E16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" t="s" s="19">
+      <c r="F16" s="12"/>
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>346.06</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>216</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>431.49</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>32842</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>309.51</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>192</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>400.68</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>80805</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>279.33</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>180</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>354.61</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>142523</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>250.5</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>160</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>319.37</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>234291</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>221.24</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>144</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>294.27</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>258781</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>196.83</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>124</v>
       </c>
-      <c r="D22" s="12">
-        <v>262.53</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="11">
+        <v>262.52999999999997</v>
+      </c>
+      <c r="E22" s="11">
         <v>226407</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>165.06</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>112</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>224.43</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>16500</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2613,7 +2723,7 @@
     <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2621,107 +2731,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="25" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="21" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="24">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/SupplementaryRawDataTables.xlsx
+++ b/data/SupplementaryRawDataTables.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlynmccoleman/Library/Mobile Documents/com~apple~CloudDocs/Documents/cogslab/DigitEyes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rb_ja\OneDrive\CSL LAB\GITHUB SYNC\DigitEyes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D07DBCF7-765D-4A2A-9526-51245EC9106A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BDEC4E2E-85EC-46F6-9C63-CFEAC159BE04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Fixation Duration" sheetId="1" r:id="rId1"/>
     <sheet name="Raw PAC Duration" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
+    <sheet name="New View Cost" sheetId="3" r:id="rId3"/>
+    <sheet name="First Action Latency" sheetId="4" r:id="rId4"/>
+    <sheet name="Between Action Latency" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -29,15 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Non-PAC Fixations (Fixations with no Actions); Linear mixed effects from raw data</t>
   </si>
   <si>
     <t>Cofficient Estimate</t>
-  </si>
-  <si>
-    <t>Intercept</t>
   </si>
   <si>
     <t>League 2</t>
@@ -67,52 +67,6 @@
     <t>A model containing League as a predictor is significantly better than a model with only game ID (subject) as a predictor.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>𝛘</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>= 334.45.    p&lt;.001</t>
-    </r>
-  </si>
-  <si>
     <t>Aggregates of raw data</t>
   </si>
   <si>
@@ -134,72 +88,95 @@
     <t>Raw Perception-Action-Cyle Linear Mixed Effects &amp; Supplementary Statistics</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>𝛘</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>= 1051.4.    p&lt;.001</t>
-    </r>
-  </si>
-  <si>
     <t>Aggregates of raw data: PAC Duration</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Table 1</t>
+    <t>Perception Action Cycles; Linear mixed effects from raw data</t>
   </si>
   <si>
-    <t>Perception Action Cycles; Linear mixed effects from raw data</t>
+    <t>New View Cost Linear Mixed Effects and Supplementary Analysis</t>
+  </si>
+  <si>
+    <t> Estimate </t>
+  </si>
+  <si>
+    <t>Std. Error </t>
+  </si>
+  <si>
+    <t> t value</t>
+  </si>
+  <si>
+    <t>(Intercept) </t>
+  </si>
+  <si>
+    <t>Linear Mixed Effects Model</t>
+  </si>
+  <si>
+    <t>League as factor</t>
+  </si>
+  <si>
+    <t>League</t>
+  </si>
+  <si>
+    <t>Fixed effects:</t>
+  </si>
+  <si>
+    <t> Error </t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)  </t>
+  </si>
+  <si>
+    <t>93.1553 </t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>  - 46.1420 </t>
+  </si>
+  <si>
+    <t>Estimate </t>
+  </si>
+  <si>
+    <t>Std. Error </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Number of Observations</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>First Action Latency Linear Mixed Effects and Supplementary Analysis</t>
+  </si>
+  <si>
+    <t>Between Action Latency Linear Mixed Effects and Supplementary Analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -219,14 +196,39 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +253,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -365,13 +373,393 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -393,9 +781,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -408,59 +793,316 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,8 +1179,1571 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>557212</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704954" cy="168829"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E903FA3D-E390-47B2-B497-D4330F7E7F50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3981450" y="3495675"/>
+              <a:ext cx="1704954" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>(6) =334.45    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>&lt;.001</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E903FA3D-E390-47B2-B497-D4330F7E7F50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3981450" y="3495675"/>
+              <a:ext cx="1704954" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                  <a:sym typeface="Helvetica Neue"/>
+                </a:rPr>
+                <a:t>𝑋^2 (6) =334.45    𝑝&lt;.001</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290515</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>566738</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1735988" cy="168829"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72E5FD4-D835-4609-886B-394F82AC075E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3790953" y="3857626"/>
+              <a:ext cx="1735988" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>(6) = 1051.4.    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>&lt;.001</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72E5FD4-D835-4609-886B-394F82AC075E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3790953" y="3857626"/>
+              <a:ext cx="1735988" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                  <a:sym typeface="Helvetica Neue"/>
+                </a:rPr>
+                <a:t>𝑋^2 (6) = 1051.4.    𝑝&lt;.001</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276227</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>700089</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1761636" cy="168829"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CF1457-4238-4B76-A628-B0E4A969B9FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2709865" y="3852864"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>(6) =422.629    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>&lt;.001</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CF1457-4238-4B76-A628-B0E4A969B9FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2709865" y="3852864"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                  <a:sym typeface="Helvetica Neue"/>
+                </a:rPr>
+                <a:t>𝑋^2 (6) =422.629    𝑝&lt;.001</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>852488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>633412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1761636" cy="168829"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DB4D53-80D4-45ED-806E-0105CF3B880C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3729038" y="3829050"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>(6) =1940.97    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>&lt;.001</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DB4D53-80D4-45ED-806E-0105CF3B880C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3729038" y="3829050"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                  <a:sym typeface="Helvetica Neue"/>
+                </a:rPr>
+                <a:t>𝑋^2 (6) =1940.97    𝑝&lt;.001</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1761636" cy="168829"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F4CE0E-FC63-481C-A870-09976C56A5AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3367087" y="4167188"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>𝑋</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                            <a:ln>
+                              <a:noFill/>
+                            </a:ln>
+                            <a:solidFill>
+                              <a:srgbClr val="000000"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:uFillTx/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                            <a:sym typeface="Helvetica Neue"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>(6) =1576.92    </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="1" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="000000"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:uFillTx/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                        <a:sym typeface="Helvetica Neue"/>
+                      </a:rPr>
+                      <m:t>&lt;.001</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F4CE0E-FC63-481C-A870-09976C56A5AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3367087" y="4167188"/>
+              <a:ext cx="1761636" cy="168829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="none"/>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:uFillTx/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                  <a:sym typeface="Helvetica Neue"/>
+                </a:rPr>
+                <a:t>𝑋^2 (6) =1576.92    𝑝&lt;.001</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="0" lang="en-CA" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uFillTx/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+                <a:sym typeface="Helvetica Neue"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1612,8 +3817,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L25"/>
@@ -1622,10 +3827,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
@@ -1633,23 +3838,23 @@
     <col min="13" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" s="30" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4">
         <v>2.5000000000000001E-2</v>
@@ -1660,1183 +3865,1490 @@
       <c r="D2" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="54"/>
+    </row>
+    <row r="3" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="8">
+        <v>66.470256000000006</v>
+      </c>
+      <c r="C3" s="9">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="D3" s="10">
+        <v>70.102306200000001</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>66.470256000000006</v>
-      </c>
-      <c r="C3" s="10">
-        <v>68.290000000000006</v>
-      </c>
-      <c r="D3" s="11">
-        <v>70.102306200000001</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="8">
+        <v>-5.2068339999999997</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-0.79102729999999999</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="54"/>
+    </row>
+    <row r="5" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>-5.2068339999999997</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-3</v>
-      </c>
-      <c r="D4" s="11">
-        <v>-0.79102729999999999</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="8">
+        <v>-7.6997299999999997</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-5.63</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-3.5600812999999998</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>-7.6997299999999997</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-5.63</v>
-      </c>
-      <c r="D5" s="11">
-        <v>-3.5600812999999998</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="8">
+        <v>-8.5068190000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-6.51</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-4.5210676999999997</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>-8.5068190000000001</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-6.51</v>
-      </c>
-      <c r="D6" s="11">
-        <v>-4.5210676999999997</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="8">
+        <v>-12.298007999999999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-10.3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-8.3079698000000004</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>-12.298007999999999</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-10.3</v>
-      </c>
-      <c r="D7" s="11">
-        <v>-8.3079698000000004</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="8">
+        <v>-15.438598000000001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-13.39</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-11.3453512</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>-15.438598000000001</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-13.39</v>
-      </c>
-      <c r="D8" s="11">
-        <v>-11.3453512</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="8">
+        <v>-23.195678999999998</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-18.739999999999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>-14.2877314</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>-23.195678999999998</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-18.739999999999998</v>
-      </c>
-      <c r="D9" s="11">
-        <v>-14.2877314</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="104" customHeight="1">
+      <c r="A12" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" ht="104" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+    </row>
+    <row r="13" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="27" t="s">
+      <c r="C15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="E15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:12" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>66.260819999999995</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>44</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>75.026480000000006</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="27">
         <v>28211</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
+        <v>62.925579999999997</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>66.83511</v>
+      </c>
+      <c r="E17" s="27">
+        <v>59351</v>
+      </c>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9">
-        <v>62.925579999999997</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B18" s="8">
+        <v>61.226320000000001</v>
+      </c>
+      <c r="C18" s="10">
         <v>44</v>
       </c>
-      <c r="D17" s="11">
-        <v>66.83511</v>
-      </c>
-      <c r="E17" s="11">
-        <v>59351</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="D18" s="10">
+        <v>63.716839999999998</v>
+      </c>
+      <c r="E18" s="27">
+        <v>90094</v>
+      </c>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
-        <v>61.226320000000001</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B19" s="8">
+        <v>60.109310000000001</v>
+      </c>
+      <c r="C19" s="10">
         <v>44</v>
       </c>
-      <c r="D18" s="11">
-        <v>63.716839999999998</v>
-      </c>
-      <c r="E18" s="11">
-        <v>90094</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="10">
+        <v>83.606279999999998</v>
+      </c>
+      <c r="E19" s="27">
+        <v>132316</v>
+      </c>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="9">
-        <v>60.109310000000001</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B20" s="8">
+        <v>56.638800000000003</v>
+      </c>
+      <c r="C20" s="10">
         <v>44</v>
       </c>
-      <c r="D19" s="11">
-        <v>83.606279999999998</v>
-      </c>
-      <c r="E19" s="11">
-        <v>132316</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="D20" s="10">
+        <v>51.091650000000001</v>
+      </c>
+      <c r="E20" s="27">
+        <v>125630</v>
+      </c>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9">
-        <v>56.638800000000003</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B21" s="8">
+        <v>53.951749999999997</v>
+      </c>
+      <c r="C21" s="10">
         <v>44</v>
       </c>
-      <c r="D20" s="11">
-        <v>51.091650000000001</v>
-      </c>
-      <c r="E20" s="11">
-        <v>125630</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="10">
+        <v>43.939109999999999</v>
+      </c>
+      <c r="E21" s="27">
+        <v>96367</v>
+      </c>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
-        <v>53.951749999999997</v>
-      </c>
-      <c r="C21" s="11">
-        <v>44</v>
-      </c>
-      <c r="D21" s="11">
-        <v>43.939109999999999</v>
-      </c>
-      <c r="E21" s="11">
-        <v>96367</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="B22" s="50">
         <v>48.961689999999997</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="51">
         <v>36</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="51">
         <v>36.958350000000003</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="52">
         <v>5873</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="13" width="16.33203125" style="20" customWidth="1"/>
-    <col min="14" max="256" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.46484375" style="44" customWidth="1"/>
+    <col min="2" max="13" width="16.33203125" style="44" customWidth="1"/>
+    <col min="14" max="256" width="16.33203125" style="30" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="40">
+        <v>369.18365</v>
+      </c>
+      <c r="C4" s="41">
+        <v>380.95</v>
+      </c>
+      <c r="D4" s="40">
+        <v>392.70686000000001</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="36">
+        <v>-54.24277</v>
+      </c>
+      <c r="C5" s="37">
+        <v>-39.97</v>
+      </c>
+      <c r="D5" s="36">
+        <v>-25.695879999999999</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="36">
+        <v>-92.580560000000006</v>
+      </c>
+      <c r="C6" s="37">
+        <v>-79.2</v>
+      </c>
+      <c r="D6" s="36">
+        <v>-65.813990000000004</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="36">
+        <v>-124.25714000000001</v>
+      </c>
+      <c r="C7" s="37">
+        <v>-111.38</v>
+      </c>
+      <c r="D7" s="36">
+        <v>-98.494699999999995</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36">
+        <v>-153.93755999999999</v>
+      </c>
+      <c r="C8" s="37">
+        <v>-141.07</v>
+      </c>
+      <c r="D8" s="36">
+        <v>-128.18268</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="36">
+        <v>-179.71325999999999</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-166.52</v>
+      </c>
+      <c r="D9" s="36">
+        <v>-153.32028</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="36">
+        <v>-234.95685</v>
+      </c>
+      <c r="C10" s="37">
+        <v>-206.54</v>
+      </c>
+      <c r="D10" s="36">
+        <v>-178.10865999999999</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" customFormat="1" ht="104" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" customFormat="1" ht="32" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36">
+        <v>346.06</v>
+      </c>
+      <c r="C17" s="36">
+        <v>216</v>
+      </c>
+      <c r="D17" s="36">
+        <v>431.49</v>
+      </c>
+      <c r="E17" s="36">
+        <v>32842</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
-        <v>369.18365</v>
-      </c>
-      <c r="C4" s="10">
-        <v>380.95</v>
-      </c>
-      <c r="D4" s="11">
-        <v>392.70686000000001</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="B18" s="36">
+        <v>309.51</v>
+      </c>
+      <c r="C18" s="36">
+        <v>192</v>
+      </c>
+      <c r="D18" s="36">
+        <v>400.68</v>
+      </c>
+      <c r="E18" s="36">
+        <v>80805</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>-54.24277</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-39.97</v>
-      </c>
-      <c r="D5" s="11">
-        <v>-25.695879999999999</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="B19" s="36">
+        <v>279.33</v>
+      </c>
+      <c r="C19" s="36">
+        <v>180</v>
+      </c>
+      <c r="D19" s="36">
+        <v>354.61</v>
+      </c>
+      <c r="E19" s="36">
+        <v>142523</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
-        <v>-92.580560000000006</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-79.2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>-65.813990000000004</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="B20" s="36">
+        <v>250.5</v>
+      </c>
+      <c r="C20" s="36">
+        <v>160</v>
+      </c>
+      <c r="D20" s="36">
+        <v>319.37</v>
+      </c>
+      <c r="E20" s="36">
+        <v>234291</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>-124.25714000000001</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-111.38</v>
-      </c>
-      <c r="D7" s="11">
-        <v>-98.494699999999995</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="B21" s="36">
+        <v>221.24</v>
+      </c>
+      <c r="C21" s="36">
+        <v>144</v>
+      </c>
+      <c r="D21" s="36">
+        <v>294.27</v>
+      </c>
+      <c r="E21" s="36">
+        <v>258781</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
-        <v>-153.93755999999999</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-141.07</v>
-      </c>
-      <c r="D8" s="11">
-        <v>-128.18268</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="B22" s="36">
+        <v>196.83</v>
+      </c>
+      <c r="C22" s="36">
+        <v>124</v>
+      </c>
+      <c r="D22" s="36">
+        <v>262.52999999999997</v>
+      </c>
+      <c r="E22" s="36">
+        <v>226407</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>-179.71325999999999</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-166.52</v>
-      </c>
-      <c r="D9" s="11">
-        <v>-153.32028</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
-        <v>-234.95685</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-206.54</v>
-      </c>
-      <c r="D10" s="11">
-        <v>-178.10865999999999</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>346.06</v>
-      </c>
-      <c r="C17" s="11">
-        <v>216</v>
-      </c>
-      <c r="D17" s="11">
-        <v>431.49</v>
-      </c>
-      <c r="E17" s="11">
-        <v>32842</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9">
-        <v>309.51</v>
-      </c>
-      <c r="C18" s="11">
-        <v>192</v>
-      </c>
-      <c r="D18" s="11">
-        <v>400.68</v>
-      </c>
-      <c r="E18" s="11">
-        <v>80805</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9">
-        <v>279.33</v>
-      </c>
-      <c r="C19" s="11">
-        <v>180</v>
-      </c>
-      <c r="D19" s="11">
-        <v>354.61</v>
-      </c>
-      <c r="E19" s="11">
-        <v>142523</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9">
-        <v>250.5</v>
-      </c>
-      <c r="C20" s="11">
-        <v>160</v>
-      </c>
-      <c r="D20" s="11">
-        <v>319.37</v>
-      </c>
-      <c r="E20" s="11">
-        <v>234291</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9">
-        <v>221.24</v>
-      </c>
-      <c r="C21" s="11">
-        <v>144</v>
-      </c>
-      <c r="D21" s="11">
-        <v>294.27</v>
-      </c>
-      <c r="E21" s="11">
-        <v>258781</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9">
-        <v>196.83</v>
-      </c>
-      <c r="C22" s="11">
-        <v>124</v>
-      </c>
-      <c r="D22" s="11">
-        <v>262.52999999999997</v>
-      </c>
-      <c r="E22" s="11">
-        <v>226407</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="B23" s="46">
         <v>165.06</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="46">
         <v>112</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="46">
         <v>224.43</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="46">
         <v>16500</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="6">
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.73046875" style="18" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" style="18" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" style="15" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A1" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="61">
+        <v>24.487819999999999</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0.77493999999999996</v>
+      </c>
+      <c r="D4" s="61">
+        <v>31.599699999999999</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="61">
+        <v>0.65622999999999998</v>
+      </c>
+      <c r="C5" s="61">
+        <v>0.93413000000000002</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="61">
+        <v>-0.47986000000000001</v>
+      </c>
+      <c r="C6" s="61">
+        <v>0.87431999999999999</v>
+      </c>
+      <c r="D6" s="61">
+        <v>-0.54879999999999995</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="61">
+        <v>-2.8964400000000001</v>
+      </c>
+      <c r="C7" s="61">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="D7" s="61">
+        <v>-3.4403999999999999</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="61">
+        <v>-5.8544299999999998</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0.84016999999999997</v>
+      </c>
+      <c r="D8" s="61">
+        <v>-6.9682000000000004</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="61">
+        <v>-9.0466499999999996</v>
+      </c>
+      <c r="C9" s="61">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="D9" s="61">
+        <v>-10.555400000000001</v>
+      </c>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="61">
+        <v>-13.81015</v>
+      </c>
+      <c r="C10" s="61">
+        <v>1.7251700000000001</v>
+      </c>
+      <c r="D10" s="61">
+        <v>-8.0051000000000005</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.15">
+      <c r="A12" s="32"/>
+      <c r="B12" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:5" ht="127.15" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="5" width="16.33203125" style="21" customWidth="1"/>
-    <col min="6" max="256" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="24" style="30" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="23.46484375" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="75"/>
+    </row>
+    <row r="3" spans="1:5" ht="13.15">
+      <c r="A3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="92"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="71">
+        <v>1.1032999999999999</v>
+      </c>
+      <c r="D5" s="72">
+        <v>84.433000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="60">
+        <v>2</v>
+      </c>
+      <c r="B6" s="71">
+        <v>-13.899800000000001</v>
+      </c>
+      <c r="C6" s="71">
+        <v>1.3395999999999999</v>
+      </c>
+      <c r="D6" s="72">
+        <v>-10.375999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="60">
+        <v>3</v>
+      </c>
+      <c r="B7" s="71">
+        <v>-21.3611</v>
+      </c>
+      <c r="C7" s="71">
+        <v>1.256</v>
+      </c>
+      <c r="D7" s="72">
+        <v>-17.007000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="60">
+        <v>4</v>
+      </c>
+      <c r="B8" s="71">
+        <v>-30.212399999999999</v>
+      </c>
+      <c r="C8" s="71">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="D8" s="72">
+        <v>-24.994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="60">
+        <v>5</v>
+      </c>
+      <c r="B9" s="71">
+        <v>-38.918700000000001</v>
+      </c>
+      <c r="C9" s="71">
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="D9" s="72">
+        <v>-32.206000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="60">
+        <v>6</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="71">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="D10" s="72">
+        <v>-37.256999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="60">
+        <v>7</v>
+      </c>
+      <c r="B11" s="71">
+        <v>-55.047400000000003</v>
+      </c>
+      <c r="C11" s="71">
+        <v>2.6709000000000001</v>
+      </c>
+      <c r="D11" s="72">
+        <v>-20.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="73"/>
+    </row>
+    <row r="13" spans="1:5" ht="31.9" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+    </row>
+    <row r="14" spans="1:5" ht="127.15" customHeight="1">
+      <c r="A14" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.73046875" style="28" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="71">
+        <v>782.16</v>
+      </c>
+      <c r="C4" s="71">
+        <v>11.234999999999999</v>
+      </c>
+      <c r="D4" s="72">
+        <v>69.617000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="60">
+        <v>2</v>
+      </c>
+      <c r="B5" s="71">
+        <v>-164.53899999999999</v>
+      </c>
+      <c r="C5" s="71">
+        <v>13.646000000000001</v>
+      </c>
+      <c r="D5" s="72">
+        <v>-12.058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="60">
+        <v>3</v>
+      </c>
+      <c r="B6" s="71">
+        <v>-243.572</v>
+      </c>
+      <c r="C6" s="71">
+        <v>12.798</v>
+      </c>
+      <c r="D6" s="72">
+        <v>-19.033000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="60">
+        <v>4</v>
+      </c>
+      <c r="B7" s="71">
+        <v>-318.78699999999998</v>
+      </c>
+      <c r="C7" s="71">
+        <v>12.316000000000001</v>
+      </c>
+      <c r="D7" s="72">
+        <v>-25.882999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="60">
+        <v>5</v>
+      </c>
+      <c r="B8" s="71">
+        <v>-388.96100000000001</v>
+      </c>
+      <c r="C8" s="71">
+        <v>12.314</v>
+      </c>
+      <c r="D8" s="72">
+        <v>-31.587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="60">
+        <v>6</v>
+      </c>
+      <c r="B9" s="71">
+        <v>-437.19299999999998</v>
+      </c>
+      <c r="C9" s="71">
+        <v>12.624000000000001</v>
+      </c>
+      <c r="D9" s="72">
+        <v>-34.631999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="60">
+        <v>7</v>
+      </c>
+      <c r="B10" s="71">
+        <v>-487.77499999999998</v>
+      </c>
+      <c r="C10" s="71">
+        <v>27.38</v>
+      </c>
+      <c r="D10" s="72">
+        <v>-17.815000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="60"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="73"/>
+    </row>
+    <row r="12" spans="1:5" ht="78.75" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="77"/>
+    </row>
+    <row r="13" spans="1:5" ht="122.25" customHeight="1">
+      <c r="A13" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>